--- a/documents/需求跟踪矩阵.xlsx
+++ b/documents/需求跟踪矩阵.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="149">
   <si>
     <t xml:space="preserve">主要分页</t>
   </si>
@@ -32,6 +32,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">子页面</t>
     </r>
@@ -51,6 +52,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">元素</t>
     </r>
@@ -62,7 +64,7 @@
     <t xml:space="preserve">具体说明</t>
   </si>
   <si>
-    <t xml:space="preserve">执行指令中文名</t>
+    <t xml:space="preserve">部件名称</t>
   </si>
   <si>
     <t xml:space="preserve">执行指令函数名</t>
@@ -156,7 +158,25 @@
     <t xml:space="preserve">Error3</t>
   </si>
   <si>
-    <t xml:space="preserve">登录界面</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">登录界面 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">login.ui/login.py</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">登陆功能</t>
@@ -168,6 +188,9 @@
     <t xml:space="preserve">输入工号，检测是否有该工号</t>
   </si>
   <si>
+    <t xml:space="preserve">num_in</t>
+  </si>
+  <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
@@ -184,10 +207,103 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">输入密码，密码由</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">6-16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">位数字或字母组成。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">pwd_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">登录按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击，验证密码用户名，匹配之后进入首页。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">login_butt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">设置按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击，切换昼夜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dark_mode_butt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">注册按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击，进入注册界面。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg_butt</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">注册功能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">输入密码，密码由</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">register.ui</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">上传头像照片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击，打开本地文件，选择上传头像照片，上传到图床，返回图床链接</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入姓名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_in</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">输入</t>
     </r>
     <r>
       <rPr>
@@ -197,54 +313,27 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">6-16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">位数字或字母组成。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">登录按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击，验证密码用户名，匹配之后进入首页。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">设置按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击，弹出主题设置界面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">注册按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击，进入注册界面。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">注册功能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上传头像照片</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击，打开本地文件，选择上传头像照片，上传到图床，返回图床链接</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入姓名</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
+      <t xml:space="preserve">20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">位以内的工号</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">输入电话</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">输入</t>
@@ -257,30 +346,97 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">位以内的工号</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">输入电话</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">输入</t>
+      <t xml:space="preserve">11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">位电话号码</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">tel_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入邮箱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mail_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">确认密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">比对前面输入的密码是否一致，一致则弹出正确弹窗，不一致则弹出错误弹窗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pwd_check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">确认按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击，完成注册，信息进入数据库</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg_confirm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">取消按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击，离开注册界面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reg_cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">首页（聊天列表为主</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黑夜模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">切换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">找回密码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发送验证码按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">填写验证码框</t>
+  </si>
+  <si>
+    <t xml:space="preserve">后台验证</t>
+  </si>
+  <si>
+    <t xml:space="preserve">修改密码框</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重复密码框</t>
+  </si>
+  <si>
+    <t xml:space="preserve">确认修改</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">验证码</t>
     </r>
     <r>
       <rPr>
@@ -290,81 +446,80 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="DejaVu Sans"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">位电话号码</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">输入邮箱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">确认密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">比对前面输入的密码是否一致，一致则弹出正确弹窗，不一致则弹出错误弹窗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">确认按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击，完成注册，信息进入数据库</t>
-  </si>
-  <si>
-    <t xml:space="preserve">取消按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击，离开注册界面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">首页（聊天列表为主</t>
-  </si>
-  <si>
-    <t xml:space="preserve">黑夜模式</t>
-  </si>
-  <si>
-    <t xml:space="preserve">切换按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">切换</t>
-  </si>
-  <si>
-    <t xml:space="preserve">找回密码</t>
-  </si>
-  <si>
-    <t xml:space="preserve">发送验证码按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">填写验证码框</t>
-  </si>
-  <si>
-    <t xml:space="preserve">后台验证</t>
-  </si>
-  <si>
-    <t xml:space="preserve">修改密码框</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重复密码框</t>
-  </si>
-  <si>
-    <t xml:space="preserve">确认修改</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">验证码</t>
+      <t xml:space="preserve">+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">密码一致，信息进入数据库，离开界面</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">创建群聊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">选择按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击目标人员，右侧栏中出现该人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下拉按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击，出现该分组的全部人员</t>
+  </si>
+  <si>
+    <t xml:space="preserve">完成按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击，成功出现群聊页面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">聊天列表主体</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击聊天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">进入该聊天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下拉菜单：删除群聊按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击，删除选中群聊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下拉菜单：删除好友按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击，删除选中好友</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新消息通知</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新消息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自己的头像</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">我的</t>
     </r>
     <r>
       <rPr>
@@ -374,78 +529,35 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">密码一致，信息进入数据库，离开界面</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">创建群聊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">选择按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击目标人员，右侧栏中出现该人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下拉按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击，出现该分组的全部人员</t>
-  </si>
-  <si>
-    <t xml:space="preserve">完成按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击，成功出现群聊页面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">聊天列表主体</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击聊天</t>
-  </si>
-  <si>
-    <t xml:space="preserve">进入该聊天</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下拉菜单：删除群聊按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击，删除选中群聊</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下拉菜单：删除好友按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击，删除选中好友</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新消息通知</t>
-  </si>
-  <si>
-    <t xml:space="preserve">新消息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自己的头像</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">我的</t>
+      <t xml:space="preserve">ip</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">信息</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">好友列表界面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">排序方式选择</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">选择首字母</t>
     </r>
     <r>
       <rPr>
@@ -455,6 +567,226 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
+      <t xml:space="preserve">or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">频率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">分组，首字母……频率……</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">好友头像</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好友信息界面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好友分组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下拉菜单创建分组按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入分组名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下拉菜单 选择好友</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好友加入该组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">好友登陆状态</t>
+  </si>
+  <si>
+    <t xml:space="preserve">在线时红点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">众多个人信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">返回聊天界面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">弹出聊天界面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">删除</t>
+  </si>
+  <si>
+    <t xml:space="preserve">删除好友</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拉黑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拒收消息</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">私聊界面</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">群聊界面</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">表情包按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击，弹出表情包窗口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查看已发送的文件按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击，查看已发送的文件，双击下载</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发送按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击，将输入框内的文字发送给页面中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文件发送功能</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发送文件按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击，发送需要的文件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">文件进度条</t>
+  </si>
+  <si>
+    <t xml:space="preserve">带文件名字</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入框</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入聊天文字，发送后文字消失</t>
+  </si>
+  <si>
+    <t xml:space="preserve">查找历史信息按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">弹出查找界面（查找界面有输入框和搜索按钮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">消息即时显示</t>
+  </si>
+  <si>
+    <t xml:space="preserve">带时间辍</t>
+  </si>
+  <si>
+    <t xml:space="preserve">视频按钮</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">跳转出窗口，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">api</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">语音消息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私聊</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">对方头像，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">ip</t>
     </r>
     <r>
@@ -463,25 +795,21 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">信息</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">好友列表界面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">排序方式选择</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">选择首字母</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">，姓名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">自己的 头像 </t>
     </r>
     <r>
       <rPr>
@@ -491,250 +819,6 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">频率</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">or</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">分组，首字母……频率……</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">好友头像</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好友信息界面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好友分组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下拉菜单创建分组按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入分组名称</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下拉菜单 选择好友</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好友加入该组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">好友登陆状态</t>
-  </si>
-  <si>
-    <t xml:space="preserve">在线时红点</t>
-  </si>
-  <si>
-    <t xml:space="preserve">众多个人信息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">返回聊天界面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">弹出聊天界面</t>
-  </si>
-  <si>
-    <t xml:space="preserve">删除</t>
-  </si>
-  <si>
-    <t xml:space="preserve">删除好友</t>
-  </si>
-  <si>
-    <t xml:space="preserve">拉黑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">拒收消息</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">私聊界面</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">群聊界面</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">表情包按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击，弹出表情包窗口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">查看已发送的文件按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击，查看已发送的文件，双击下载</t>
-  </si>
-  <si>
-    <t xml:space="preserve">发送按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击，将输入框内的文字发送给页面中</t>
-  </si>
-  <si>
-    <t xml:space="preserve">文件发送功能</t>
-  </si>
-  <si>
-    <t xml:space="preserve">发送文件按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点击，发送需要的文件</t>
-  </si>
-  <si>
-    <t xml:space="preserve">文件进度条</t>
-  </si>
-  <si>
-    <t xml:space="preserve">带文件名字</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入框</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入聊天文字，发送后文字消失</t>
-  </si>
-  <si>
-    <t xml:space="preserve">查找历史信息按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">弹出查找界面（查找界面有输入框和搜索按钮</t>
-  </si>
-  <si>
-    <t xml:space="preserve">消息即时显示</t>
-  </si>
-  <si>
-    <t xml:space="preserve">带时间辍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">视频按钮</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">跳转出窗口，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">api</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">语音消息</t>
-  </si>
-  <si>
-    <t xml:space="preserve">私聊</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">对方头像，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">ip</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">，姓名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">自己的 头像 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">ip </t>
     </r>
     <r>
@@ -743,6 +827,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">信息</t>
     </r>
@@ -837,19 +922,20 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -909,15 +995,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -925,7 +1011,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -957,7 +1043,7 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1056,7 +1142,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -1069,70 +1155,80 @@
       <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="J3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
       <c r="C4" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="J4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="J5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F8" s="7"/>
@@ -1140,27 +1236,29 @@
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
@@ -1174,62 +1272,82 @@
         <v>18</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="7"/>
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
       <c r="C14" s="6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="C15" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>38</v>
+        <v>45</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
       <c r="C16" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
       <c r="C17" s="6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
       <c r="C18" s="6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>42</v>
+        <v>51</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1239,410 +1357,410 @@
     </row>
     <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1676,7 +1794,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/documents/需求跟踪矩阵.xlsx
+++ b/documents/需求跟踪矩阵.xlsx
@@ -164,6 +164,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">登录界面 </t>
     </r>
@@ -209,6 +210,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">输入密码，密码由</t>
     </r>
@@ -228,6 +230,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位数字或字母组成。</t>
     </r>
@@ -269,6 +272,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">注册功能</t>
     </r>
@@ -302,6 +306,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">输入</t>
     </r>
@@ -321,6 +326,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位以内的工号</t>
     </r>
@@ -335,6 +341,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">输入</t>
     </r>
@@ -354,6 +361,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">位电话号码</t>
     </r>
@@ -894,7 +902,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -923,12 +931,6 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1011,11 +1013,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1043,7 +1045,7 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1794,7 +1796,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/documents/需求跟踪矩阵.xlsx
+++ b/documents/需求跟踪矩阵.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86185\Documents\GitHub\IMsoftware\documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E659D839-C4CD-476A-83E6-60C08DF4DCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="21257" windowHeight="10791" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="161">
   <si>
     <t>主要分页</t>
   </si>
@@ -36,7 +25,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>子页面</t>
@@ -46,7 +34,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>/</t>
@@ -56,7 +43,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>元素</t>
@@ -80,7 +66,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>客户端传给服务端的操作指令（</t>
@@ -90,7 +75,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>str</t>
@@ -100,7 +84,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>类型）</t>
@@ -115,7 +98,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>服务端传给服务端的操作指令（</t>
@@ -125,7 +107,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>str</t>
@@ -135,7 +116,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>类型）</t>
@@ -168,7 +148,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">登录界面 </t>
@@ -178,7 +157,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>login.ui/login.py</t>
@@ -214,7 +192,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>输入密码，密码由</t>
@@ -224,7 +201,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>6-16</t>
@@ -234,7 +210,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>位数字或字母组成。</t>
@@ -253,6 +228,9 @@
     <t>login_butt</t>
   </si>
   <si>
+    <t>client.userlogin(self,user_id,user_pwd)</t>
+  </si>
+  <si>
     <t>设置按钮</t>
   </si>
   <si>
@@ -271,12 +249,14 @@
     <t>reg_butt</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
+    <t>client.user_register(user_id=entered_ID, user_name=entered_name, user_email=entered_mail, user_pwd=entered_password, user_image= "04260202")</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
         <charset val="1"/>
       </rPr>
       <t>注册功能</t>
@@ -286,7 +266,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="DejaVu Sans"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>register.ui</t>
@@ -310,7 +289,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>输入</t>
@@ -320,7 +298,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>20</t>
@@ -330,7 +307,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>位以内的工号</t>
@@ -345,7 +321,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>输入</t>
@@ -355,7 +330,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>11</t>
@@ -365,7 +339,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>位电话号码</t>
@@ -446,7 +419,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>验证码</t>
@@ -456,7 +428,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>+</t>
@@ -466,7 +437,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>密码一致，信息进入数据库，离开界面</t>
@@ -529,7 +499,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>我的</t>
@@ -539,7 +508,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ip</t>
@@ -549,7 +517,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>信息</t>
@@ -567,7 +534,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>选择首字母</t>
@@ -577,7 +543,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>or</t>
@@ -587,7 +552,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>频率</t>
@@ -597,7 +561,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>or</t>
@@ -607,7 +570,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>分组，首字母……频率……</t>
@@ -623,6 +585,9 @@
     <t>好友信息界面</t>
   </si>
   <si>
+    <t>client.friendinfo(id=1234) -&gt;list</t>
+  </si>
+  <si>
     <t>好友分组</t>
   </si>
   <si>
@@ -638,6 +603,15 @@
     <t>好友加入该组</t>
   </si>
   <si>
+    <t>添加好友/关注好友</t>
+  </si>
+  <si>
+    <t>输入好友id</t>
+  </si>
+  <si>
+    <t>显示好友name，关注</t>
+  </si>
+  <si>
     <t>好友登陆状态</t>
   </si>
   <si>
@@ -647,6 +621,9 @@
     <t>众多个人信息</t>
   </si>
   <si>
+    <t>点击头像后，弹出窗口并显示信息</t>
+  </si>
+  <si>
     <t>返回聊天界面</t>
   </si>
   <si>
@@ -673,7 +650,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>私聊界面</t>
@@ -683,7 +659,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>/</t>
@@ -693,7 +668,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>群聊界面</t>
@@ -759,7 +733,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>跳转出窗口，</t>
@@ -769,7 +742,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>api</t>
@@ -787,7 +759,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>对方头像，</t>
@@ -797,7 +768,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>ip</t>
@@ -807,7 +777,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>，姓名</t>
@@ -819,7 +788,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">自己的 头像 </t>
@@ -829,7 +797,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">ip </t>
@@ -839,7 +806,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
-        <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t>信息</t>
@@ -900,82 +866,402 @@
     <t>设置</t>
   </si>
   <si>
-    <t>client.userlogin(self,user_id,user_pwd)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>client.user_register(user_id=entered_ID, user_name=entered_name, user_email=entered_mail, user_pwd=entered_password, user_image= "04260202")</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>client.friendinfo(id=1234) -&gt;list</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入好友id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加好友/关注好友</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示好友name，关注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击头像后，弹出窗口并显示信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>chatroom</t>
+  </si>
+  <si>
+    <t>text_in</t>
+  </si>
+  <si>
+    <t>send_butt</t>
+  </si>
+  <si>
+    <t>显示框</t>
+  </si>
+  <si>
+    <t>view_box</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Noto Sans CJK SC"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -983,55 +1269,338 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1080,7 +1649,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1113,26 +1682,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1165,23 +1717,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1323,47 +1858,41 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.55833333333333" defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.77734375" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22.33203125" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="48.77734375" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="21.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="19.775" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="6" width="22.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="48.775" customWidth="1"/>
+    <col min="8" max="8" width="19.6666666666667" customWidth="1"/>
+    <col min="12" max="13" width="8.88333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.4">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="14.15" spans="1:26">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -1372,10 +1901,10 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="3"/>
       <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1385,12 +1914,12 @@
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
       <c r="U1" s="2" t="s">
         <v>9</v>
       </c>
@@ -1402,13 +1931,13 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="14.4">
+    <row r="2" spans="6:26">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="2"/>
@@ -1418,16 +1947,16 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="U2" s="2"/>
@@ -1437,20 +1966,20 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="43.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="28.3" spans="1:12">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J3" t="s">
@@ -1463,15 +1992,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="28.8">
-      <c r="A4" s="8"/>
-      <c r="C4" s="6" t="s">
+    <row r="4" ht="28.3" spans="1:11">
+      <c r="A4" s="6"/>
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="J4" t="s">
@@ -1481,19 +2010,19 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="28.8">
-      <c r="A5" s="8"/>
-      <c r="C5" s="6" t="s">
+    <row r="5" ht="28.3" spans="1:12">
+      <c r="A5" s="6"/>
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
         <v>21</v>
@@ -1505,609 +2034,638 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.4">
-      <c r="A6" s="8"/>
-      <c r="C6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6" t="s">
+    <row r="6" ht="14.15" spans="1:6">
+      <c r="A6" s="6"/>
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" ht="52.8" customHeight="1">
-      <c r="C7" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="6" t="s">
+    </row>
+    <row r="7" ht="52.8" customHeight="1" spans="3:7">
+      <c r="C7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.4">
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.4">
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:26" ht="43.2">
-      <c r="B10" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="6" t="s">
+    </row>
+    <row r="8" spans="6:6">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="6:6">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" ht="42.45" spans="2:6">
+      <c r="B10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:26" ht="14.4">
-      <c r="A11" s="8"/>
-      <c r="C11" s="6" t="s">
+      <c r="C10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.4">
-      <c r="A12" s="8"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:26" ht="14.4">
-      <c r="A13" s="8"/>
-      <c r="C13" s="6" t="s">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" ht="14.15" spans="1:6">
+      <c r="A11" s="6"/>
+      <c r="C11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="6"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" ht="14.15" spans="1:6">
+      <c r="A13" s="6"/>
+      <c r="C13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="D13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="14.4">
-      <c r="A14" s="8"/>
-      <c r="C14" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>43</v>
+    <row r="14" ht="14.15" spans="1:6">
+      <c r="A14" s="6"/>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.4">
-      <c r="A15" s="8"/>
-      <c r="C15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" ht="14.15" spans="1:6">
+      <c r="A15" s="6"/>
+      <c r="C15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="28.8">
-      <c r="A16" s="8"/>
-      <c r="C16" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" ht="28.3" spans="1:6">
+      <c r="A16" s="6"/>
+      <c r="C16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="57.6">
-      <c r="A17" s="8"/>
-      <c r="C17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>48</v>
+    <row r="17" ht="42.45" spans="1:6">
+      <c r="A17" s="6"/>
+      <c r="C17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="28.8">
-      <c r="A18" s="8"/>
-      <c r="C18" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" ht="28.3" spans="1:6">
+      <c r="A18" s="6"/>
+      <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" ht="14.15" spans="1:6">
+      <c r="A19" s="6"/>
+      <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" ht="14.15" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" ht="14.15" spans="2:4">
+      <c r="B22" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" ht="14.15" spans="2:4">
+      <c r="B23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" ht="42.45" spans="3:4">
+      <c r="C26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.4">
-      <c r="A19" s="8"/>
-      <c r="C19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.4">
-      <c r="A20" s="8"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="14.4">
-      <c r="A21" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.4">
-      <c r="B22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="14.4">
-      <c r="B23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.4">
-      <c r="C24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="14.4">
-      <c r="C25" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="57.6">
-      <c r="C26" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="54.75" customHeight="1">
-      <c r="C27" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="14.4">
-      <c r="B28" s="3" t="s">
+    </row>
+    <row r="27" ht="54.75" customHeight="1" spans="3:4">
+      <c r="C27" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D28" s="3" t="s">
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="14.4">
-      <c r="C29" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.4">
-      <c r="C30" s="3" t="s">
+    <row r="29" spans="3:4">
+      <c r="C29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="14.4">
-      <c r="B33" s="3" t="s">
+    <row r="30" spans="3:4">
+      <c r="C30" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="3" t="s">
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="14.4">
-      <c r="C34" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.4">
-      <c r="C35" s="3" t="s">
+    <row r="34" spans="3:4">
+      <c r="C34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.4">
-      <c r="B36" s="3" t="s">
+    <row r="35" spans="3:4">
+      <c r="C35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="14.4">
-      <c r="B37" s="3" t="s">
+    <row r="36" spans="2:4">
+      <c r="B36" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="14.4">
-      <c r="B38" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.4">
-      <c r="A41" s="3" t="s">
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="3" t="s">
+    </row>
+    <row r="38" ht="14.15" spans="2:2">
+      <c r="B38" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="3" t="s">
+    </row>
+    <row r="41" ht="14.15" spans="1:4">
+      <c r="A41" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="14.4">
-      <c r="B42" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D42" s="3" t="s">
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="C42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" ht="14.15" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" ht="14.15" spans="3:4">
+      <c r="C72" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3">
+      <c r="C73" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" ht="14.15" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" ht="14.15" spans="2:2">
+      <c r="B76" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3">
+      <c r="C81" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3">
+      <c r="C82" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3">
+      <c r="C83" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3">
+      <c r="C84" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="14.4">
-      <c r="B43" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="14.4">
-      <c r="C44" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="14.4">
-      <c r="B45" s="3" t="s">
+    <row r="96" spans="2:2">
+      <c r="B96" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="D45" s="3" t="s">
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.4">
-      <c r="B47" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="14.4">
-      <c r="A55" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" t="s">
+    <row r="101" spans="3:3">
+      <c r="C101" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.4">
-      <c r="B56" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="14.4">
-      <c r="B57" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="14.4">
-      <c r="B58" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="14.4">
-      <c r="A64" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="14.4">
-      <c r="C65" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="14.4">
-      <c r="C66" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="14.4">
-      <c r="B67" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="14.4">
-      <c r="C68" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="14.4">
-      <c r="C69" s="3" t="s">
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>156</v>
+      </c>
+      <c r="C107" t="s">
+        <v>126</v>
+      </c>
+      <c r="D107" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="C108" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="14.4">
-      <c r="C70" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="14.4">
-      <c r="B71" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="14.4">
-      <c r="C72" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="14.4">
-      <c r="C73" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="14.4">
-      <c r="A75" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="14.4">
-      <c r="B76" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="14.4">
-      <c r="A80" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="2:4" ht="14.4">
-      <c r="C81" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="82" spans="2:4" ht="14.4">
-      <c r="C82" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" spans="2:4" ht="14.4">
-      <c r="C83" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="2:4" ht="14.4">
-      <c r="C84" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="85" spans="2:4" ht="14.4">
-      <c r="B85" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="86" spans="2:4" ht="14.4">
-      <c r="C86" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="2:4" ht="14.4">
-      <c r="B93" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="94" spans="2:4" ht="14.4">
-      <c r="B94" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="95" spans="2:4" ht="14.4">
-      <c r="B95" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="96" spans="2:4" ht="14.4">
-      <c r="B96" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" ht="14.4">
-      <c r="B97" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" ht="14.4">
-      <c r="C100" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" ht="14.4">
-      <c r="C101" s="3" t="s">
-        <v>148</v>
+      <c r="D108" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="C109" t="s">
+        <v>159</v>
+      </c>
+      <c r="D109" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="U1:U2"/>
     <mergeCell ref="V1:Z2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:P2"/>
-    <mergeCell ref="Q1:T1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.10833333333333" defaultRowHeight="14.1"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/documents/需求跟踪矩阵.xlsx
+++ b/documents/需求跟踪矩阵.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="166">
   <si>
     <t xml:space="preserve">主要分页</t>
   </si>
@@ -270,6 +270,36 @@
   </si>
   <si>
     <t xml:space="preserve">client.user_register(user_id=entered_ID, user_name=entered_name, user_email=entered_mail, user_pwd=entered_password, user_image= "04260202")</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">ip</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ip_in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入端口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">port_in</t>
   </si>
   <si>
     <r>
@@ -941,7 +971,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -990,6 +1020,13 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1033,7 +1070,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1078,6 +1115,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1097,8 +1138,8 @@
   </sheetPr>
   <dimension ref="A1:Z109"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.55859375" defaultRowHeight="14.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1292,35 +1333,45 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="7"/>
+      <c r="C8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F9" s="7"/>
+      <c r="C9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
       <c r="C11" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,7 +1386,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>20</v>
@@ -1344,25 +1395,25 @@
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
       <c r="C14" s="6" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="C15" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1380,37 +1431,37 @@
     <row r="17" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
       <c r="C17" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="28.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
       <c r="C19" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1420,454 +1471,454 @@
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="42.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="54.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C27" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C100" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C101" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>127</v>
+        <v>161</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C108" s="10" t="s">
-        <v>120</v>
+      <c r="C108" s="11" t="s">
+        <v>124</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C109" s="10" t="s">
-        <v>160</v>
+      <c r="C109" s="11" t="s">
+        <v>164</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1901,7 +1952,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
